--- a/error_counts/biodivner/Meta-Llama-3.1-70B-Instruct/combination_2_4_parsed_output/tokens_pure_noise.xlsx
+++ b/error_counts/biodivner/Meta-Llama-3.1-70B-Instruct/combination_2_4_parsed_output/tokens_pure_noise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,10 +453,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CSP01</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>tropical</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
@@ -464,7 +468,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>tropical</t>
+          <t>South America</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -479,12 +483,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>South America</t>
+          <t>Eckelmann</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>No label</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -494,7 +498,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Eckelmann</t>
+          <t>W. Sponagel</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -509,7 +513,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W. Sponagel</t>
+          <t>H. Grottenthaler</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -524,7 +528,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>H. Grottenthaler</t>
+          <t>W. Hartmann</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -539,7 +543,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>W. Hartmann</t>
+          <t>J. Hartwich</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -554,7 +558,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>J. Hartwich</t>
+          <t>R. Janetzko</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -569,7 +573,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>R. Janetzko</t>
+          <t>P. Traidl</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -584,7 +588,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>P. Traidl</t>
+          <t>R.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -599,12 +603,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>R.</t>
+          <t>South</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>No label</t>
+          <t>GEOGRAPHIC LOCATION</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -614,7 +618,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>America</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -629,12 +633,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>America</t>
+          <t>LÃƒÂ¼neburg</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GEOGRAPHIC LOCATION</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -644,7 +648,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LÃƒÂ¼neburg</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -659,12 +663,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Andreas Schuldt</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>PERSON</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -674,12 +678,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Andreas Schuldt</t>
+          <t>German Centre for Integrative Biodiversity Research</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PERSON</t>
+          <t>ORGANIZATION</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -689,7 +693,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>German Centre for Integrative Biodiversity Research</t>
+          <t>iDiv</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -704,12 +708,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>iDiv</t>
+          <t>Leipzig</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ORGANIZATION</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -719,7 +723,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Leipzig</t>
+          <t>Deutscher Platz</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -734,12 +738,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Deutscher Platz</t>
+          <t>Michael Staab</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>PERSON</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -749,12 +753,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Michael Staab</t>
+          <t>University of Freiburg</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PERSON</t>
+          <t>ORGANIZATION</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -764,7 +768,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>University of Freiburg</t>
+          <t>Chair of Nature Conservation and Landscape Ecology</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -779,12 +783,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Chair of Nature Conservation and Landscape Ecology</t>
+          <t>Tennenbacher Str</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ORGANIZATION</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -794,12 +798,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Tennenbacher Str</t>
+          <t>Anja Fankhänel</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>PERSON</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -809,7 +813,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Anja Fankhänel</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -824,30 +828,15 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>Corsica Island</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PERSON</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Corsica Island</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>LOCATION</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
         <v>1</v>
       </c>
     </row>
